--- a/outputs/test-p__Elusimicrobiota.xlsx
+++ b/outputs/test-p__Elusimicrobiota.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F589BE-CBD3-F141-A8DA-FC9785D13B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269D382-BA62-3B4B-82E9-9C73892B77F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="820" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="linear-svm-score" sheetId="2" r:id="rId1"/>
-    <sheet name="c__quadratic-svm-score" sheetId="3" r:id="rId2"/>
+    <sheet name="c__quadratic-svm-score" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Row</t>
   </si>
@@ -91,14 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,11 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,156 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.97029415040334666</v>
-      </c>
-      <c r="C2">
-        <v>2.9705849596653289E-2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.9409800974592335</v>
-      </c>
-      <c r="C3">
-        <v>5.9019902540766486E-2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.23807070206035907</v>
-      </c>
-      <c r="C4">
-        <v>0.76192929793964104</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.97920120748163464</v>
-      </c>
-      <c r="C5">
-        <v>2.0798792518365413E-2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.99409847818122299</v>
-      </c>
-      <c r="C6">
-        <v>5.9015218187769948E-3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.10408394190084436</v>
-      </c>
-      <c r="C7">
-        <v>0.89591605809915564</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.86902907317840095</v>
-      </c>
-      <c r="C8">
-        <v>0.13097092682159911</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.92665175459406512</v>
-      </c>
-      <c r="C9">
-        <v>7.3348245405934834E-2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -596,24 +442,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -630,7 +476,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -647,7 +493,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -664,7 +510,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -681,7 +527,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -698,7 +544,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -715,7 +561,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -732,7 +578,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
